--- a/Documents/Risk Log/Archive/OneVA Pharmacy Implementation Risk Log v1.0 20151029.xlsx
+++ b/Documents/Risk Log/Archive/OneVA Pharmacy Implementation Risk Log v1.0 20151029.xlsx
@@ -16,15 +16,12 @@
     <sheet name="OMB Risk Categories" sheetId="10" r:id="rId7"/>
     <sheet name="Yellow Flag Risk Categories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="351">
   <si>
     <t xml:space="preserve">Risk Owner </t>
   </si>
@@ -1412,9 +1409,6 @@
     <t>10/29/2015</t>
   </si>
   <si>
-    <t>TJ Cope</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk and Issue Log/Registry
 OneVA Pharmacy               </t>
   </si>
@@ -1425,7 +1419,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2122,6 +2116,12 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2131,11 +2131,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2183,12 +2183,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2201,45 +2195,6 @@
     <cellStyle name="Normal 9" xfId="5"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3512,6 +3467,45 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3724,187 +3718,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Issues"/>
-      <sheetName val="Risks"/>
-      <sheetName val="Closed Issues"/>
-      <sheetName val="Closed Risks"/>
-      <sheetName val="Old Issue History"/>
-      <sheetName val="Old Risk History"/>
-      <sheetName val="OMB300 Graph"/>
-      <sheetName val="Program  Info"/>
-      <sheetName val="OMB Risk Categories"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Risk Ranking &amp; Dropdowns"/>
-      <sheetName val="Burndown Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="I3" t="str">
-            <v>VH</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3" t="str">
-            <v>VHVH</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="B1">
-            <v>41913</v>
-          </cell>
-          <cell r="C1">
-            <v>41920</v>
-          </cell>
-          <cell r="D1">
-            <v>41927</v>
-          </cell>
-          <cell r="E1">
-            <v>41934</v>
-          </cell>
-          <cell r="F1">
-            <v>41941</v>
-          </cell>
-          <cell r="G1">
-            <v>41948</v>
-          </cell>
-          <cell r="H1">
-            <v>41955</v>
-          </cell>
-          <cell r="I1">
-            <v>41962</v>
-          </cell>
-          <cell r="J1">
-            <v>41969</v>
-          </cell>
-          <cell r="K1">
-            <v>41976</v>
-          </cell>
-          <cell r="L1">
-            <v>41983</v>
-          </cell>
-          <cell r="M1">
-            <v>41990</v>
-          </cell>
-          <cell r="N1">
-            <v>41997</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Risks</v>
-          </cell>
-          <cell r="B2">
-            <v>343</v>
-          </cell>
-          <cell r="C2">
-            <v>327</v>
-          </cell>
-          <cell r="D2">
-            <v>332</v>
-          </cell>
-          <cell r="E2">
-            <v>332</v>
-          </cell>
-          <cell r="F2">
-            <v>291</v>
-          </cell>
-          <cell r="G2">
-            <v>270</v>
-          </cell>
-          <cell r="H2">
-            <v>265</v>
-          </cell>
-          <cell r="I2">
-            <v>240</v>
-          </cell>
-          <cell r="J2">
-            <v>240</v>
-          </cell>
-          <cell r="K2">
-            <v>240</v>
-          </cell>
-          <cell r="L2">
-            <v>232</v>
-          </cell>
-          <cell r="M2">
-            <v>255</v>
-          </cell>
-          <cell r="N2">
-            <v>276</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Issues</v>
-          </cell>
-          <cell r="B3">
-            <v>37</v>
-          </cell>
-          <cell r="C3">
-            <v>59</v>
-          </cell>
-          <cell r="D3">
-            <v>59</v>
-          </cell>
-          <cell r="E3">
-            <v>59</v>
-          </cell>
-          <cell r="F3">
-            <v>64</v>
-          </cell>
-          <cell r="G3">
-            <v>59</v>
-          </cell>
-          <cell r="H3">
-            <v>53</v>
-          </cell>
-          <cell r="I3">
-            <v>48</v>
-          </cell>
-          <cell r="J3">
-            <v>43</v>
-          </cell>
-          <cell r="K3">
-            <v>43</v>
-          </cell>
-          <cell r="L3">
-            <v>39</v>
-          </cell>
-          <cell r="M3">
-            <v>32</v>
-          </cell>
-          <cell r="N3">
-            <v>32</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Revision_History" displayName="Revision_History" ref="A3:D4" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="A3:D4">
@@ -3915,9 +3728,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="Date" dataDxfId="65"/>
-    <tableColumn id="2" name="Version" dataDxfId="0"/>
-    <tableColumn id="3" name="Description" dataDxfId="64"/>
-    <tableColumn id="4" name="Author" dataDxfId="63"/>
+    <tableColumn id="2" name="Version" dataDxfId="64"/>
+    <tableColumn id="3" name="Description" dataDxfId="63"/>
+    <tableColumn id="4" name="Author" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3929,108 +3742,108 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="I4:R20" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="I4:R20" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="I4:R20"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Root Cause *" dataDxfId="58"/>
-    <tableColumn id="2" name="Risk Impact * (VH,H,M,L,VL)" dataDxfId="57"/>
-    <tableColumn id="3" name="Risk Response *    (Accept, Avoid, Exploit, Enhance, Transfer, Share, Mitigate)" dataDxfId="56"/>
-    <tableColumn id="4" name="Risk Response Strategy *" dataDxfId="55"/>
-    <tableColumn id="5" name="Risk Trigger" dataDxfId="54"/>
-    <tableColumn id="6" name="Current Status *" dataDxfId="53"/>
-    <tableColumn id="7" name="Follow-up Date" dataDxfId="52"/>
-    <tableColumn id="8" name="Timeframe (Milestone, Gateway, Increment)" dataDxfId="51"/>
-    <tableColumn id="9" name="Risk Owner *" dataDxfId="50"/>
-    <tableColumn id="20" name="NOTES" dataDxfId="49"/>
+    <tableColumn id="1" name="Root Cause *" dataDxfId="57"/>
+    <tableColumn id="2" name="Risk Impact * (VH,H,M,L,VL)" dataDxfId="56"/>
+    <tableColumn id="3" name="Risk Response *    (Accept, Avoid, Exploit, Enhance, Transfer, Share, Mitigate)" dataDxfId="55"/>
+    <tableColumn id="4" name="Risk Response Strategy *" dataDxfId="54"/>
+    <tableColumn id="5" name="Risk Trigger" dataDxfId="53"/>
+    <tableColumn id="6" name="Current Status *" dataDxfId="52"/>
+    <tableColumn id="7" name="Follow-up Date" dataDxfId="51"/>
+    <tableColumn id="8" name="Timeframe (Milestone, Gateway, Increment)" dataDxfId="50"/>
+    <tableColumn id="9" name="Risk Owner *" dataDxfId="49"/>
+    <tableColumn id="20" name="NOTES" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowBorderDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B36" totalsRowShown="0" headerRowBorderDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="A2:B36"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Project" dataDxfId="46"/>
-    <tableColumn id="2" name="The formal title or application namespace given to the project." dataDxfId="45"/>
+    <tableColumn id="1" name="Project" dataDxfId="45"/>
+    <tableColumn id="2" name="The formal title or application namespace given to the project." dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A38:B45" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A38:B45" totalsRowShown="0" headerRowDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A38:B45"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Risk Response Options" dataDxfId="42"/>
-    <tableColumn id="2" name="Example" dataDxfId="41"/>
+    <tableColumn id="1" name="Risk Response Options" dataDxfId="41"/>
+    <tableColumn id="2" name="Example" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="H4:S21" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="H4:S21" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="H4:S21"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Risk Category/OMB Category" dataDxfId="36"/>
-    <tableColumn id="2" name="Contingency Action Plan(s)" dataDxfId="35"/>
-    <tableColumn id="3" name="Impact Ranking (VH, H, M)" dataDxfId="34"/>
-    <tableColumn id="4" name="FLAGS (Red/Yellow) *" dataDxfId="33"/>
-    <tableColumn id="5" name="TechStat*" dataDxfId="32"/>
-    <tableColumn id="6" name="Leadership Actions or Help Needed *" dataDxfId="31"/>
-    <tableColumn id="7" name="Status *                              (Open, In Process, Deferred, Resolved, Closed, ReOpen)" dataDxfId="30"/>
-    <tableColumn id="8" name="Follow-up Date *" dataDxfId="29"/>
-    <tableColumn id="9" name="Issue Owner*" dataDxfId="28"/>
-    <tableColumn id="10" name="Risk Owner " dataDxfId="27"/>
-    <tableColumn id="11" name="Resolution Description " dataDxfId="26"/>
-    <tableColumn id="12" name="Notes" dataDxfId="25"/>
+    <tableColumn id="1" name="Project Risk Category/OMB Category" dataDxfId="35"/>
+    <tableColumn id="2" name="Contingency Action Plan(s)" dataDxfId="34"/>
+    <tableColumn id="3" name="Impact Ranking (VH, H, M)" dataDxfId="33"/>
+    <tableColumn id="4" name="FLAGS (Red/Yellow) *" dataDxfId="32"/>
+    <tableColumn id="5" name="TechStat*" dataDxfId="31"/>
+    <tableColumn id="6" name="Leadership Actions or Help Needed *" dataDxfId="30"/>
+    <tableColumn id="7" name="Status *                              (Open, In Process, Deferred, Resolved, Closed, ReOpen)" dataDxfId="29"/>
+    <tableColumn id="8" name="Follow-up Date *" dataDxfId="28"/>
+    <tableColumn id="9" name="Issue Owner*" dataDxfId="27"/>
+    <tableColumn id="10" name="Risk Owner " dataDxfId="26"/>
+    <tableColumn id="11" name="Resolution Description " dataDxfId="25"/>
+    <tableColumn id="12" name="Notes" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:B28" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:B28" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A2:B28"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Issue Log Field" dataDxfId="20"/>
-    <tableColumn id="2" name="Description" dataDxfId="19"/>
+    <tableColumn id="1" name="Issue Log Field" dataDxfId="19"/>
+    <tableColumn id="2" name="Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A30:B35" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A30:B35" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A30:B35"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Issue Impact Factors " dataDxfId="14"/>
-    <tableColumn id="2" name="Description" dataDxfId="13"/>
+    <tableColumn id="1" name="Issue Impact Factors " dataDxfId="13"/>
+    <tableColumn id="2" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:D21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:D21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A2:D21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Category" dataDxfId="8"/>
-    <tableColumn id="2" name="Definition" dataDxfId="7"/>
-    <tableColumn id="3" name="Examples" dataDxfId="6"/>
-    <tableColumn id="4" name="Mitigation Example" dataDxfId="5"/>
+    <tableColumn id="1" name="Category" dataDxfId="7"/>
+    <tableColumn id="2" name="Definition" dataDxfId="6"/>
+    <tableColumn id="3" name="Examples" dataDxfId="5"/>
+    <tableColumn id="4" name="Mitigation Example" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:B13" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:B13" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B13"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Yellow Flag Category" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" name="Yellow Flag Category" dataDxfId="1"/>
+    <tableColumn id="2" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4340,31 +4153,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A3" s="88" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="A3" s="90" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="C4" s="7"/>
@@ -4403,52 +4216,52 @@
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="110">
+      <c r="A17" s="92">
         <v>42306</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:8" ht="18">
       <c r="B18" s="7"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="18.75">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4486,12 +4299,12 @@
       <c r="A1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="81" t="s">
@@ -4511,14 +4324,14 @@
       <c r="A4" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="109">
+      <c r="B4" s="87">
         <v>1</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>348</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -4572,26 +4385,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:227" ht="31.5" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:227" s="29" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -4609,18 +4422,18 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="100" t="s">
         <v>331</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="98" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
       <c r="R2" s="35"/>
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
@@ -4852,14 +4665,14 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
       <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:227" s="4" customFormat="1" ht="61.9" customHeight="1">
@@ -5510,10 +5323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="56" t="s">
@@ -5796,10 +5609,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="104"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="62" t="s">
@@ -5912,27 +5725,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="107"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="29" t="s">
@@ -5942,25 +5755,25 @@
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="98" t="s">
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="106" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
       <c r="S2" s="31"/>
     </row>
     <row r="3" spans="1:19">
@@ -5971,19 +5784,19 @@
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="98" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
@@ -6438,10 +6251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="69" t="s">
@@ -6660,10 +6473,10 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="109"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="73" t="s">
@@ -6876,12 +6689,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="74" t="s">
@@ -7301,12 +7114,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9403BA8FA3C04284FCC68C41786FF8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d930f28b70f0e7748733ab02e6548e7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79b90255-bd6f-4c6b-86d1-35a4603ef2ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2487182c19151c53130115b88133083c" ns2:_="">
     <xsd:import namespace="79b90255-bd6f-4c6b-86d1-35a4603ef2ac"/>
@@ -7454,36 +7274,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BDA011-D9A5-4F49-9164-99DA416828A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6B9E27-9EE5-42B6-AA56-49BB90468EFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="79b90255-bd6f-4c6b-86d1-35a4603ef2ac"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{369CBE67-1FC7-4FBD-BABA-C18E052BB35F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEDCBCA8-8ABB-4A0F-994A-2AD548788F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7501,18 +7314,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{369CBE67-1FC7-4FBD-BABA-C18E052BB35F}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BDA011-D9A5-4F49-9164-99DA416828A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6B9E27-9EE5-42B6-AA56-49BB90468EFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="79b90255-bd6f-4c6b-86d1-35a4603ef2ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>